--- a/output/final_result.xlsx
+++ b/output/final_result.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>99188 AngelaVillageSuite839 Garystad,IA67786</t>
+          <t>99188 AngelaVillageSuite839Garystad,IA67786</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hodge Inc</t>
+          <t>HodgeInc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PSC2367,B0x5979 APOAP77717</t>
+          <t>PSC2367,B0x5979APOAP77717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1293LawrenceEstatesSuite940 Besthaven,NV23717</t>
+          <t>1293LawrenceEstatesSuite940Besthaven,NV23717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19558 FryCauseway East Chelseytown,MD 95490</t>
+          <t>19558FryCausewayEastChelseytown,MD95490</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>222Cannon Station Apt.735 Michaelside,IA01530</t>
+          <t>222Cannon Station Apt.735Michaelside,IA01530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Simmons Inc</t>
+          <t>SimmonsInc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17172 Thomas Spurs Suite 214 Lorichester,WV81274</t>
+          <t>17172 Thomas Spurs Suite 214Lorichester,WV81274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9074EdwardBurgSuite328 Nicolasport,OH05143</t>
+          <t>9074EdwardBurgSuite328Nicolasport,OH05143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5197Rebekah Stravenue Suite 498 NewNicholasland,VA18645</t>
+          <t>5197Rebekah Stravenue Suite498NewNicholasland,VA18645</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>277Angela Mountains Suite288 PortDaniel,UT44288</t>
+          <t>277Angela Mountains Suite 288PortDaniel,UT44288</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PSC8310,Box2699 APOAA27181</t>
+          <t>PSC8310,Box2699APOAA27181</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3674 Graham Cliff Suite842 EastBrandonport,Hl 46902</t>
+          <t>3674GrahamCliffSuite842EastBrandonport,Hl 46902</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2696Trevino Ridges South Sara,MT86708</t>
+          <t>2696Trevino RidgesSouth Sara,MT86708</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ellis Group</t>
+          <t>EllisGroup</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4257Joseph Crossing NewNatasha,WV95056</t>
+          <t>4257Joseph CrossingNewNatasha,WV95056</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>075OmarStream WestChadchester,VT67751</t>
+          <t>075OmarStreamWestChadchester,VT67751</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>504AshleyPike Jameshaven,ND78333</t>
+          <t>504AshleyPikeJameshaven,ND78333</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>65628BrittanyDale Walterschester,LA26239</t>
+          <t>65628BrittanyDaleWalterschester,LA26239</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>584Melanie Cove LakeRenee,AR60697</t>
+          <t>584Melanie CoveLakeRenee,AR60697</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6867SnyderManorApt.222 Skinnerland,MD22292</t>
+          <t>6867SnyderManorApt.222Skinnerland,MD22292</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>578AnneIsleApt.742 EastAllisonberg,OK15150</t>
+          <t>578AnneIsleApt.742EastAllisonberg,OK15150</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4053JustinPort Mcbridetown,OH93256</t>
+          <t>4053JustinPortMcbridetown,OH93256</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>65570DanielPikeApt.160 Hernandezhaven,NY51451</t>
+          <t>65570DanielPikeApt.160Hernandezhaven,NY51451</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>012Mcmahon Estate Khanview,MS21813</t>
+          <t>012Mcmahon EstateKhanview,MS21813</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7419SmithValleyApt.840 WestSherri,MT92201</t>
+          <t>7419SmithValleyApt.840WestSherri,MT92201</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>716SusanLockSuite104 NorthTyler,CT21530</t>
+          <t>716Susan LockSuite104NorthTyler,CT21530</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>77477TroyCliffApt.853 Washingtonbury,MS78346</t>
+          <t>77477TroyCliffApt.853Washingtonbury,MS78346</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8621Maria Fords NorthMiguel,KS38601</t>
+          <t>8621MariaFordsNorthMiguel,KS 38601</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4000TonyaRapidSuite963 South Marissaport,MN39537</t>
+          <t>4000TonyaRapidSuite963South Marissaport,MN39537</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>60159BettyPlaceApt.254 PortWillieville,VA62901</t>
+          <t>60159BettyPlaceApt.254PortWillieville,VA62901</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22989Daniel Run SouthJennifer,LA 86324</t>
+          <t>22989DanielRunSouth Jennifer,LA86324</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00625SmithMall Apt.604 NewDustin,AZ81632</t>
+          <t>00625SmithMall Apt.604NewDustin,AZ81632</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>85455CarterEstate Mooremouth,CT 29699</t>
+          <t>85455CarterEstateMooremouth,CT29699</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>74098 Moon Junctions Robinsonshire,NV36200</t>
+          <t>74098 Moon JunctionsRobinsonshire,NV36200</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3000AguirreFall Danielletown,FL36813</t>
+          <t>3000AguirreFallDanielletown,FL36813</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1014,12 +1014,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Buckley,WrightandChase</t>
+          <t>Buckley,Wright and Chase</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3524 Chandler Shoal Nicholasfurt,VA09561</t>
+          <t>3524Chandler ShoalNicholasfurt,VA09561</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1031,12 +1031,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jordan,Jones and Rodriguez</t>
+          <t>Jordan, Jones and Rodriguez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>372 JohnTunnel Patelport,SC86533</t>
+          <t>372 JohnTunnelPatelport,SC86533</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7313 Roberts Extensions LakeKevin,ID16074</t>
+          <t>7313 Roberts ExtensionsLakeKevin,ID16074</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8182Hancock StreetApt.613 WestDavid,MA55043</t>
+          <t>8182 Hancock Street Apt.613WestDavid,MA55043</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6971Michael SquaresSuite138 NewChristopherborough,WA66988</t>
+          <t>6971Michael SquaresSuite138NewChristopherborough,WA66988</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07227Kristen Locks Suite 358 Julieview,KS58803</t>
+          <t>07227Kristen Locks Suite 358Julieview,KS58803</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>492Hannah Circle NorthBrandonberg,OR04120</t>
+          <t>492Hannah CircleNorthBrandonberg,OR04120</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>630Alex Islands Suite809 Brandonport,NC62378</t>
+          <t>630Alex IslandsSuite809Brandonport,NC62378</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PSC5057,B0x8574 APOAP08956</t>
+          <t>PSC5057,B0x8574APOAP08956</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PSC1836,B0x4614 APOAA85127</t>
+          <t>PSC1836,Box4614APOAA85127</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>652VanessaPrairie Lake Danielleborough,KY14802</t>
+          <t>652VanessaPrairieLake Danielleborough,KY14802</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>478Shawn Bridge South Susanborough,UT 84890</t>
+          <t>478ShawnBridgeSouth Susanborough,UT84890</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1218,12 +1218,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Duncan PLC</t>
+          <t>DuncanPLC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Unit8799B0x0703 DPOAP81970</t>
+          <t>Unit8799B0x0703DPOAP81970</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>507Holly LandApt.686 Powellborough,UT13981</t>
+          <t>507HollyLandApt.686Powellborough,UT13981</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22688OrtizPlaza Meganfort,WA91964</t>
+          <t>22688OrtizPlazaMeganfort,WA91964</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8060LisaValleysApt.828 NewJohn,ND77007</t>
+          <t>8060LisaValleysApt.828NewJohn,ND77007</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>618PerezShoals Suite978 Bradshawton,TN51301</t>
+          <t>618Perez Shoals Suite978Bradshawton,TN51301</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Unit8049Box4906 DPOAE32839</t>
+          <t>Unit8049Box4906DPOAE32839</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6230HillTurnpikeApt.357 Davisberg,TN25348</t>
+          <t>6230HillTurnpikeApt.357Davisberg,TN25348</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hernandez and Sons</t>
+          <t>HernandezandSons</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>922Brown RestApt.806 Robinsonburgh,Wi71369</t>
+          <t>922BrownRest Apt.806Robinsonburgh,Wi71369</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unit0427Box2729 DPOAA15407</t>
+          <t>Unit0427Box2729DPOAA15407</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>328Flynn Ford Apt.165 Port Sara,NJ 14253</t>
+          <t>328Flynn FordApt.165Port Sara,Nj 14253</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3711 Rebecca Lodge Suite 568 Rhondabury,IA26475</t>
+          <t>3711Rebecca Lodge Suite568Rhondabury,IA26475</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6512 Jones Forge PortDouglas,WY20794</t>
+          <t>6512JonesForgePortDouglas,WY20794</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>702TeresaPlazaApt.105 lanmouth,IA94740</t>
+          <t>702TeresaPlazaApt.105lanmouth,IA94740</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0907Lewis Centers Apt.160 LakeJessica,NV38156</t>
+          <t>0907Lewis Centers Apt.160LakeJessica,NV38156</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>99581RaymondForgeApt.828 SouthBrendan,CA25172</t>
+          <t>99581RaymondForgeApt.828SouthBrendan,CA25172</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>224MorrisIsleSuite821 Stephaniemouth,WA65097</t>
+          <t>224MorrisIsleSuite821Stephaniemouth,WA65097</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8088GarciaKeyApt.489 EastGeraldville,Nj 12475</t>
+          <t>8088GarciaKeyApt.489EastGeraldville,Nj 12475</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>59924MelindaShores LakeKrystal,NH19984</t>
+          <t>59924MelindaShoresLake Krystal,NH19984</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>77704 Casey JunctionSuite173 SouthJacquelinefort,OK29297</t>
+          <t>77704 Casey JunctionSuite 173SouthJacquelinefort,Ok29297</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>33707 CoxParkway Apt.612 WestFernando,WY12616</t>
+          <t>33707CoxParkwayApt.612WestFernando,WY12616</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>778MorrisLocks WestTravisborough,LA17973</t>
+          <t>778MorrisLocksWestTravisborough,LA17973</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>657Carmen Causeway Suite808 Webbhaven,KS52749</t>
+          <t>657Carmen Causeway Suite808Webbhaven,KS52749</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>571RobinsonCreek NorthDeborahview,CT06884</t>
+          <t>571RobinsonCreekNorthDeborahview,CT06884</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7417BowersFort Longberg,TX60292</t>
+          <t>7417BowersFortLongberg,TX60292</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1626,12 +1626,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Walker,Patterson andEvans</t>
+          <t>Walker,Patterson and Evans</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6497Hahn CliffsSuite908 South Elizabethfurt,VT77705</t>
+          <t>6497HahnCliffsSuite908South Elizabethfurt,VT77705</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7227Michael LakesApt.810 NorthAshley,TN15350</t>
+          <t>7227Michael LakesApt.810NorthAshley,TN15350</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>51915KathrynKeys Timothyville,DE87126</t>
+          <t>51915KathrynKeysTimothyville,DE87126</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01838Reed Greens Kingbury,WY89224</t>
+          <t>01838Reed GreensKingbury,WY89224</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Unit2670B0x5736 DPOAE13536</t>
+          <t>Unit2670Box5736DPOAE13536</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12196BarrettPlainSuite873 North Victorborough,NY 32585</t>
+          <t>12196BarrettPlainSuite873NorthVictorborough,NY32585</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>86898 AllisonValley Suite583 Markbury,KY35305</t>
+          <t>86898 AllisonValleySuite583Markbury,KY35305</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3571Tina Trafficway Buckleyland,LA97688</t>
+          <t>3571Tina TrafficwayBuckleyland,LA97688</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Unit5502Box9807 DPOAP91576</t>
+          <t>Unit5502B0x9807DPOAP91576</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8552KarenIslands East Roger,ID 40416</t>
+          <t>8552KarenIslandsEast Roger,ID40416</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9050MicheleParkwayApt.396 Rosemouth,ND05238</t>
+          <t>9050MicheleParkwayApt.396Rosemouth,ND05238</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>45922 Patricia Courts South William,IN08798</t>
+          <t>45922Patricia CourtsSouthWilliam,IN08798</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>417Christopher Brook Suite 968 Port Robertmouth,IL51885</t>
+          <t>417Christopher Brook Suite 968PortRobertmouth,IL 51885</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>222Harris Club Susanchester,MA 97802</t>
+          <t>222Harris ClubSusanchester,MA 97802</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>78997BrentCourt Jonesland,MA 32167</t>
+          <t>78997BrentCourtJonesland,MA32167</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>602SusanRowApt.412 Port Calvinside,GA15057</t>
+          <t>602SusanRowApt.412Port Calvinside,GA15057</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>074Davis Circle Apt.374 NewSusanmouth,KS 25871</t>
+          <t>074Davis Circle Apt.374NewSusanmouth,KS25871</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5208ElizabethRapidsSuite596 Lake Cliffordchester,DC 82996</t>
+          <t>5208Elizabeth RapidsSuite596Lake Cliffordchester,DC 82996</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7860TiffanyDrive NorthAndrewview,CT50988</t>
+          <t>7860TiffanyDriveNorthAndrewview,CT50988</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5960MichaelPassage Lake Dominiquefort,DE 48139</t>
+          <t>5960MichaelPassageLake Dominiguefort,DE 48139</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>90918JesusVillageSuite061 Saundersstad,AK57749</t>
+          <t>90918JesusVillage Suite061Saundersstad,AK57749</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>9027VelezRiver WestGinamouth,Nj 71857</t>
+          <t>9027VelezRiverWestGinamouth,Nj 71857</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>805GregoryLockSuite478 Sheppardborough,AL35800</t>
+          <t>805GregoryLock Suite478Sheppardborough,AL35800</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01909KylePort SouthJoyce,VA45070</t>
+          <t>01909KylePortSouthJoyce,VA45070</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PSC2324,B0x6632 APOAP93827</t>
+          <t>PSC2324,B0x6632APOAP93827</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>86702CarterCommon NorthLaurabury,Ml65302</t>
+          <t>86702CarterCommonNorthLaurabury,MI65302</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2752 Timothy Court Yorkport,AR44256</t>
+          <t>2752 Timothy CourtYorkport,AR44256</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>9726AliciaDrivesApt.236 Theresaville,VA56864</t>
+          <t>9726AliciaDrivesApt.236Theresaville,VA56864</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>027MarkStreetSuite513 Ericmouth,OK37355</t>
+          <t>027MarkStreetSuite513Ericmouth,OK37355</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6559LawrenceCape WestDenisechester,WY06980</t>
+          <t>6559LawrenceCapeWestDenisechester,WY06980</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Unit6000Box9800 DPOAA91089</t>
+          <t>Unit6000Box9800DPOAA91089</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0875CharlesVillage Suite 140 Reidfort,NC33037</t>
+          <t>0875 CharlesVillage Suite140Reidfort,NC33037</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>731ClarkFords Johnbury,HI95582</t>
+          <t>731ClarkFordsJohnbury,HI95582</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0681ThomasField Michaelshire,FL64856</t>
+          <t>0681ThomasFieldMichaelshire,FL64856</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2204,12 +2204,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Leblancand Sons</t>
+          <t>LeblancandSons</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>65388StephenCenterApt.014 Hallport,CT28544</t>
+          <t>65388StephenCenterApt.014Hallport,CT28544</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Unit3754B0x7172 DPOAA86105</t>
+          <t>Unit3754B0x7172DPOAA86105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>839MasonSquaresApt.624 NorthBrian,NH59718</t>
+          <t>839MasonSquaresApt.624NorthBrian,NH59718</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1983 Michael Islands Apt.059 NewJenniferburgh,ID25217</t>
+          <t>1983 Michael Islands Apt.059NewJenniferburgh,ID25217</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>94070 Durham Orchard Suite 505 WestKyleburgh,VA36158</t>
+          <t>94070DurhamOrchardSuite505WestKyleburgh,VA36158</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>484LisaPine North Jenniferstad,MT 51984</t>
+          <t>484LisaPineNorthJenniferstad,MT 51984</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>20333ErikClubApt.925 LakeAbigailborough,MN76772</t>
+          <t>20333ErikClubApt.925LakeAbigailborough,MN76772</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>48923 Dominguez Locks Apt.317 Sarahberg,LA20147</t>
+          <t>48923Dominguez Locks Apt.317Sarahberg,LA20147</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>9085AshleyFordSuite319 South Sydney,SD 05269</t>
+          <t>9085AshleyFord Suite319South Sydney,SD05269</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5965 JacquelinePorts Suite 673 Brookston,NE34614</t>
+          <t>5965 JacquelinePorts Suite673Brookston,NE34614</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>87328ArnoldCrossroadSuite206 SouthAmy,MS29781</t>
+          <t>87328 Arnold Crossroad Suite206SouthAmy,MS29781</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>USCGCJordan FPOAE99678</t>
+          <t>USCGCJordanFPOAE99678</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9139 MartinezUnderpass NewCoreychester,KS66197</t>
+          <t>9139Martinez UnderpassNewCoreychester,KS66197</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,12 +2425,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wright,Aguirre and Harper</t>
+          <t>Wright,Aguirreand Harper</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>215HarrellVillage South Katherinebury,AR 00997</t>
+          <t>215HarrellVillageSouth Katherinebury,AR 00997</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3794MarkWells Cummingsport,PA 01428</t>
+          <t>3794MarkWellsCummingsport,PA01428</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3610 Atkinson Stravenue Port Michaelside,MD58672</t>
+          <t>3610 Atkinson StravenuePortMichaelside,MD58672</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2286CraneStreet Clarkburgh,MI68456</t>
+          <t>2286CraneStreetClarkburgh,MI68456</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2493,12 +2493,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Schneider,Carr and Vazquez</t>
+          <t>Schneider,Carr andVazquez</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2915 Robert Inlet Suite 605 Campbellmouth,AK64282</t>
+          <t>2915 Robert InletSuite 605Campbellmouth,AK64282</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6914 Carolyn Circle Eugenefort,VA31831</t>
+          <t>6914Carolyn CircleEugenefort,VA31831</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>19905MichaelDriveApt.892 Rushberg,KY36515</t>
+          <t>19905 MichaelDrive Apt.892Rushberg,KY36515</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>011Dana Knoll Apt.337 PortAndrew,WI38525</t>
+          <t>011Dana Knoll Apt.337PortAndrew,WI38525</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2561,12 +2561,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>JosephPLC</t>
+          <t>Joseph PLC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>USCGCBoyd FPOAE83569</t>
+          <t>USCGCBoydFPOAE83569</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>17129 Samantha Ports Apt.993 LakeRalphhaven,VAO1231</t>
+          <t>17129 Samantha Ports Apt.993LakeRalphhaven,VAO1231</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>138Collins Falls East Nancymouth,SC 66253</t>
+          <t>138Collins FallsEast Nancymouth,SC 66253</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>722 James GardensApt.564 Skinnerside,LA50576</t>
+          <t>722 James Gardens Apt.564Skinnerside,LA50576</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>70496 JamesHill Apt.960 Smithside,DC23664</t>
+          <t>70496JamesHill Apt.960Smithside,DC23664</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>18304ValerieRow NorthSteve,HI79797</t>
+          <t>18304ValerieRowNorthSteve,HI79797</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1325 Robert Junction Port Erika,ID22552</t>
+          <t>1325Robert JunctionPortErika,ID22552</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>0557MarkMeadow EastWilliam,MI02744</t>
+          <t>0557MarkMeadowEastWilliam,MI02744</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>725DoyleCornerApt.621 NorthAlan,MS77994</t>
+          <t>725Doyle Corner Apt.621NorthAlan,MS77994</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>130Anderson Mission Apt.986 Lisaland,DE05170</t>
+          <t>130Anderson Mission Apt.986Lisaland,DE05170</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5280KatherineGatewayApt.310 Edwardhaven,IL85794</t>
+          <t>5280KatherineGatewayApt.310Edwardhaven,IL85794</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>6970TaylorMount Martinton,SD55429</t>
+          <t>6970TaylorMountMartinton,SD55429</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>747TylerFortApt.215 Port James,ND 02107</t>
+          <t>747TylerFortApt.215Port James,ND 02107</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>JohnsonLtd</t>
+          <t>Johnson Ltd</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>86731 RyanThroughwaySuite743 WestJason,CT15849</t>
+          <t>86731 RyanThroughwaySuite743WestJason,CT15849</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>0321KimberlyCurve NorthSarah,ND66658</t>
+          <t>0321KimberlyCurveNorthSarah,ND66658</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>71106 Jessica RapidSuite 235 NewMargaretburgh,NE02077</t>
+          <t>71106JessicaRapidSuite235NewMargaretburgh,NE02077</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2833,12 +2833,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Johnson-jacobson</t>
+          <t>Johnson-Jacobson</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Unit 6228Box7257 DPOAA89714</t>
+          <t>Unit6228Box7257DPOAA89714</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>85820 EricForks Apt.733 Guerraberg,CA36346</t>
+          <t>85820 Eric Forks Apt.733Guerraberg,CA36346</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9975LeonVillagesApt.845 Gonzalezberg,VA02610</t>
+          <t>9975LeonVillagesApt.845Gonzalezberg,VA02610</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>9024EugeneRoute North Sandra,NC 26867</t>
+          <t>9024Eugene RouteNorth Sandra,NC 26867</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10934 LopezKnollsApt.343 NewJennifer,Rl52627</t>
+          <t>10934LopezKnollsApt.343NewJennifer,Rl52627</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>86727HendersonSummitSuite008 PortDavidland,ME56702</t>
+          <t>86727HendersonSummitSuite008PortDavidland,ME56702</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>0715VasquezFord EastJeanette,MD 91592</t>
+          <t>0715VasquezFordEastJeanette,MD 91592</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>21986DavidLane Jimenezmouth,Nj 58158</t>
+          <t>21986David LaneJimenezmouth,Nj58158</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>27726 BergerGlens NewLorrainefort,IN99543</t>
+          <t>27726BergerGlensNewLorrainefort,IN99543</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>USSSalas FPOAP29909</t>
+          <t>USSSalasFPOAP29909</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>07095 Robert Cape Marquezburgh,DC81706</t>
+          <t>07095 RobertCapeMarquezburgh,DC81706</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>167Howard Place Suite420 Gordonville,NM91832</t>
+          <t>167HowardPlaceSuite420Gordonville,NM91832</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Unit 6358B0x7854 DPOAP22425</t>
+          <t>Unit6358B0x7854DPOAP22425</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>91305 Laura Street Apt.439 Matthewsmouth,Nj19408</t>
+          <t>91305 LauraStreetApt.439Matthewsmouth,Nj19408</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3498 Margaret Shores Noahtown,WA89768</t>
+          <t>3498MargaretShoresNoahtown,WA89768</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>13110 Martinez Falls NewFelicia,ID29150</t>
+          <t>13110 Martinez FallsNewFelicia,ID29150</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>892ThomasLoafSuite430 SouthJeffrey,TN64104</t>
+          <t>892ThomasLoafSuite430SouthJeffrey,TN64104</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>494HarrisVillagesApt.528 NorthShane,CT06537</t>
+          <t>494HarrisVillagesApt.528North Shane,CT06537</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>70391KelseyTerrace Garcialand,VT41740</t>
+          <t>70391KelseyTerraceGarcialand,VT41740</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>9901 Holly Circle Suite 899 EastSherry,ND50444</t>
+          <t>9901 Holly Circle Suite 899EastSherry,ND50444</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2246Landry Court Murillomouth,AZ66593</t>
+          <t>2246Landry CourtMurillomouth,AZ66593</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>802PamelaMission Matthewview,IL73213</t>
+          <t>802PamelaMissionMatthewview,IL73213</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>663Eric GreenSuite 721 Port Richard,TN24870</t>
+          <t>663Eric Green Suite721Port Richard,TN24870</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>05025MaryFall Mackside,OR70036</t>
+          <t>05025MaryFallMackside,OR70036</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>20195LisaIsland South Rebeccatown,OR 94663</t>
+          <t>20195LisaIslandSouth Rebeccatown,OR94663</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>63947Erin ParkwayApt.073 Guzmanshire,NY08857</t>
+          <t>63947Erin ParkwayApt.073Guzmanshire,NY08857</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>455TravisIsle South Stephen,NC 82421</t>
+          <t>455TravisIsleSouth Stephen,NC 82421</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>86752 Brenda Port Apt.664 Hollyfort,WY05948</t>
+          <t>86752Brenda Port Apt.664Hollyfort,WY05948</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7492Chelsea Groves WestLisa,CA36745</t>
+          <t>7492Chelsea GrovesWestLisa,CA36745</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3326,12 +3326,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Parker,Hood and Harvey</t>
+          <t>Parker, Hood and Harvey</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>377AndrewAvenue Port Coreyton,IA 39732</t>
+          <t>377AndrewAvenuePort Coreyton,IA39732</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3343,12 +3343,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>EnglishInc</t>
+          <t>English Inc</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>643 Jennifer Passage Suite 015 Darrylbury,KS60926</t>
+          <t>643Jennifer Passage Suite 015Darrylbury,KS60926</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>140Gates Crossroad Apt.980 Cannonchester,NV21140</t>
+          <t>140Gates Crossroad Apt.980Cannonchester,NV21140</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>28396 GaryThroughway Patrickborough,UT40039</t>
+          <t>28396 GaryThroughwayPatrickborough,UT40039</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>13963 AlexisShoalsApt.210 Ericland,NH18446</t>
+          <t>13963 AlexisShoalsApt.210Ericland,NH18446</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>6889OliverSummit SouthEbony,NY23978</t>
+          <t>6889OliverSummitSouth Ebony,NY23978</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>80909 Singh MeadowApt.075 Deanton,MS79649</t>
+          <t>80909SinghMeadowApt.075Deanton,MS79649</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>180 John Springs Suite 534 Burgessland,Rl40270</t>
+          <t>180 John Springs Suite 534Burgessland,Rl40270</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>86208 Kathryn Extensions Suite 300 Mcmillanton,MD03357</t>
+          <t>86208Kathryn ExtensionsSuite300Mcmillanton,MD03357</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3479,12 +3479,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hanson,Mathewsand Brown</t>
+          <t>Hanson,MathewsandBrown</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>78379MarySprings NewWilliam,MS90713</t>
+          <t>78379MarySpringsNewWilliam,MS90713</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>35539 SimsPlazaApt.206 Cassandraburgh,CA57710</t>
+          <t>35539 SimsPlazaApt.206Cassandraburgh,CA57710</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>37039 Brown Estates Suite 872 Grantburgh,SC87485</t>
+          <t>37039 Brown Estates Suite 872Grantburgh,SC87485</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>5998Stephen Squares Maryville,OH19487</t>
+          <t>5998Stephen SquaresMaryville,OH19487</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>11689 Debra Corner Carlmouth,AL23480</t>
+          <t>11689 Debra CornerCarlmouth,AL23480</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>252Courtney Motorway NorthLaurie,DC 43805</t>
+          <t>252CourtneyMotorwayNorthLaurie,DC43805</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>6886FernandezVillage Brianhaven,MD41714</t>
+          <t>6886FernandezVillageBrianhaven,MD41714</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>762Steven Estate Apt.920 WestWilliam,FL53332</t>
+          <t>762Steven Estate Apt.920WestWilliam,FL53332</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7352Meadows OverpassApt.977 Danielside,PA85793</t>
+          <t>7352MeadowsOverpassApt.977Danielside,PA85793</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>765Meredith Points Matthewsfort,FL73462</t>
+          <t>765Meredith PointsMatthewsfort,FL73462</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>00878EverettCentersSuite291 SouthJesusmouth,Tx 79756</t>
+          <t>00878EverettCentersSuite291SouthJesusmouth,Tx79756</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>74699 Lee FlatsApt.165 Port Amymouth,AK84827</t>
+          <t>74699LeeFlatsApt.165Port Amymouth,AK84827</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>413Snow Extensions WestMichealfort,ME 41012</t>
+          <t>413Snow ExtensionsWestMichealfort,ME41012</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>9899Bryan Springs Clarkshire,AR57184</t>
+          <t>9899Bryan SpringsClarkshire,AR57184</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3717,12 +3717,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Bernard,Welch and Freeman</t>
+          <t>Bernard,Welch andFreeman</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>06193JuliaRow Michelleburgh,NH84339</t>
+          <t>06193JuliaRowMichelleburgh,NH84339</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>98071 Daniel Heights Careyside,MS59400</t>
+          <t>98071 Daniel HeightsCareyside,MS59400</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>6320MichelleFalls NewShaunstad,VT35611</t>
+          <t>6320MichelleFallsNewShaunstad,VT35611</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>57002JamesGlens Elizabethfort,NV49326</t>
+          <t>57002JamesGlensElizabethfort,NV49326</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1996ChelseaWalkSuite879 Port Williamport,SC66876</t>
+          <t>1996ChelseaWalkSuite879PortWilliamport,SC 66876</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>094McintoshEstates Suite 179 EastSherry,TX54155</t>
+          <t>094Mcintosh Estates Suite 179EastSherry,TX54155</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Unit3880B0x7735 DPOAE39399</t>
+          <t>Unit3880B0x7735DPOAE39399</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Unit 6603Box2116 DPOAE78649</t>
+          <t>Unit 6603Box2116DPOAE78649</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>316Alexander Run Apt.930 SouthDanabury,WV35900</t>
+          <t>316Alexander Run Apt.930SouthDanabury,WV35900</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>68333LauraOrchard WestKathleen,IN30289</t>
+          <t>68333LauraOrchardWestKathleen,IN30289</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>824BrownVillageSuite249 Johnsonland,NH 47691</t>
+          <t>824BrownVillageSuite249Johnsonland,NH47691</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>647 JoyceVille Waltonfort,IA57670</t>
+          <t>647 JoyceVilleWaltonfort,IA57670</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>5744 Christy Tunnel Suite 953 LakeKirstenview,Rl67905</t>
+          <t>5744ChristyTunnel Suite 953LakeKirstenview,Rl67905</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>492TurnerMountains Jesushaven,NC39447</t>
+          <t>492TurnerMountainsJesushaven,NC39447</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>88048TonyaStreetsApt.993 Pattersonhaven,Ml03007</t>
+          <t>88048Tonya StreetsApt.993Pattersonhaven,Ml03007</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>3253Kelly Underpass EastMelody,IN80458</t>
+          <t>3253Kelly UnderpassEastMelody,IN80458</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7089LopezRapids Port Jeremyville,AK76472</t>
+          <t>7089LopezRapidsPortJeremyville,AK76472</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>688WeeksManors LakeJasonland,WV37430</t>
+          <t>688WeeksManorsLakeJasonland,WV37430</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>654RobinsonVillagesApt.390 WestAnthonyview,PA31030</t>
+          <t>654RobinsonVillagesApt.390WestAnthonyview,PA31030</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>3632 Zimmerman Street LakeKaren,MO76536</t>
+          <t>3632ZimmermanStreetLakeKaren,MO76536</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7698Davis Freeway Rachelport,CO 79421</t>
+          <t>7698DavisFreewayRachelport,CO79421</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>954Curtis Spring Morrisonstad,IL82766</t>
+          <t>954Curtis SpringMorrisonstad,IL82766</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7965Lisa Unions Ryanville,WY81410</t>
+          <t>7965Lisa UnionsRyanville,WY81410</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PSC0648,B0x7748 APOAP78662</t>
+          <t>PSC0648,B0x7748APOAP78662</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>0395YuStream PortRichard,KS 72808</t>
+          <t>0395YuStreamPort Richard,KS72808</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>0370JamesFlatApt.820 Josephtown,AR 11108</t>
+          <t>0370JamesFlatApt.820Josephtown,AR 11108</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>3325BettyBurgsSuite707 LakeKelly,NH51667</t>
+          <t>3325BettyBurgs Suite707LakeKelly,NH51667</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>9585Melissa Motorway Apt.430 Christophermouth,MN61410</t>
+          <t>9585Melissa Motorway Apt.430Christophermouth,MN61410</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>51370 Thompson Oval Suite 431 Beckerburgh,ME77062</t>
+          <t>51370 Thompson Oval Suite 431Beckerburgh,ME77062</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>10199 Heidi VillagesSuite303 Patrickchester,OK35545</t>
+          <t>10199 Heidi VillagesSuite303Patrickchester,OK35545</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>626Caitlin RiverSuite858 EastJulie,NY28799</t>
+          <t>626CaitlinRiverSuite858East Julie,NY28799</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>5730Steven Flats Turnerfurt,ND59258</t>
+          <t>5730Steven FlatsTurnerfurt,ND 59258</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>99780 Santos Manor Suite 643 Angelatown,ME15450</t>
+          <t>99780SantosManorSuite643Angelatown,ME15450</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13818 Melinda Ramp Samuelmouth,NV13900</t>
+          <t>13818 Melinda RampSamuelmouth,NV13900</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>792DanielsDriveApt.384 NewLaurenbury,VA36605</t>
+          <t>792DanielsDriveApt.384NewLaurenbury,VA36605</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4312,12 +4312,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>White,HayesandBlackwell</t>
+          <t>White,Hayes andBlackwell</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>987AdamsLoopApt.228 Bruceview,WY49509</t>
+          <t>987AdamsLoopApt.228Bruceview,WY49509</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>72930 Benjamin Forge Terrimouth,VA11648</t>
+          <t>72930 Benjamin ForgeTerrimouth,VA11648</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>581Christian Canyon Paulburgh,NV98729</t>
+          <t>581Christian CanyonPaulburgh,NV98729</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>38524Alicia Light Millerville,IN53046</t>
+          <t>38524AliciaLightMillerville,IN53046</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4380,12 +4380,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Bird, Bates and Johnston</t>
+          <t>Bird,Bates and Johnston</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>970Rowe Street Kristieton,CO 20645</t>
+          <t>970Rowe StreetKristieton,CO20645</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>72498JosephMillApt.418 WestPaul,AZ08086</t>
+          <t>72498JosephMillApt.418WestPaul,AZ08086</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1163KatieRoads Stephanieland,MN25123</t>
+          <t>1163KatieRoadsStephanieland,MN25123</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>98591HarrisIslands South Marthamouth,KY 68885</t>
+          <t>98591HarrisIslandsSouth Marthamouth,KY 68885</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>89000 ChristopherBrook Port Richardmouth,CA87376</t>
+          <t>89000 ChristopherBrookPort Richardmouth,CA87376</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>614RodneyManor South Kristinberg,DE 43488</t>
+          <t>614RodneyManorSouth Kristinberg,DE 43488</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>99520 Michael Stravenue EastKaren,LA73024</t>
+          <t>99520 Michael StravenueEastKaren,LA73024</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>730HendersonRidge PortMichelleville,VT58312</t>
+          <t>730HendersonRidgePortMichelleville,VT58312</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>01185 SherryManor Robertburgh,IL76443</t>
+          <t>01185SherryManorRobertburgh,IL76443</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>5963BrookeIsle Christophertown,KY24288</t>
+          <t>5963BrookeIsleChristophertown,KY24288</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>101Ford Stravenue Scotttown,DE22621</t>
+          <t>101Ford StravenueScotttown,DE22621</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2314BeardVia Kellybury,GA19687</t>
+          <t>2314BeardViaKellybury,GA19687</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>USNS Scott FPOAA73490</t>
+          <t>USNSScottFPOAA73490</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>8866BrownCentersSuite945 NewStephaniemouth,IN94165</t>
+          <t>8866BrownCentersSuite945NewStephaniemouth,IN 94165</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>639MichaelPrairieSuite405 Taylortown,LA49456</t>
+          <t>639MichaelPrairieSuite405Taylortown,LA49456</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>308Washington Street Suite333 PortDavid,TN98937</t>
+          <t>308Washington Street Suite333PortDavid,TN98937</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>5003LambertCrossingSuite099 LakeKayleeport,Nj80905</t>
+          <t>5003LambertCrossingSuite099LakeKayleeport,Nj80905</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>199JenniferKeySuite625 South Michelleview,SD29781</t>
+          <t>199JenniferKeySuite625SouthMichelleview,SD29781</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>682KimberlyPlainApt.213 Adamport,DE94746</t>
+          <t>682KimberlyPlainApt.213Adamport,DE94746</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>075GaryUnionSuite231 NewLindsayberg,WY10457</t>
+          <t>075GaryUnionSuite231NewLindsayberg,WY10457</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>288MillerBurg Nicolechester,DE82359</t>
+          <t>288MillerBurgNicolechester,DE82359</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>USCGC Gonzales FPOAP32696</t>
+          <t>USCGC GonzalesFPOAP32696</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>157Michaela Station Mariafort,IL29394</t>
+          <t>157Michaela StationMariafort,IL29394</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>022CourtneyCreek NorthDarrylmouth,GA25986</t>
+          <t>022CourtneyCreekNorthDarrylmouth,GA25986</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>04734 StevensRoads Port Christina,OK91381</t>
+          <t>04734StevensRoadsPort Christina,OK91381</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>14915 AnthonyCoveApt.445 Port Stephaniechester,CO 36812</t>
+          <t>14915AnthonyCoveApt.445Port Stephaniechester,CO 36812</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>80943BeckDivide Wadeport,IA90419</t>
+          <t>80943BeckDivideWadeport,IA90419</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>88740TylerMeadowSuite201 Garciamouth,KY01739</t>
+          <t>88740Tyler Meadow Suite201Garciamouth,KY01739</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>086MaryWellsApt.915 LakeKayla,DC11633</t>
+          <t>086MaryWellsApt.915LakeKayla,DC11633</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2761LittlePlains WestMaryborough,AZ33641</t>
+          <t>2761LittlePlainsWestMaryborough,AZ33641</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>433FergusonLandApt.377 Kirkstad,MN16124</t>
+          <t>433FergusonLand Apt.377Kirkstad,MN16124</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>36484 Richard Extensions Suite 325 NorthValeriehaven,AZ79970</t>
+          <t>36484 Richard Extensions Suite 325NorthValeriehaven,AZ79970</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>5115Meza Mountain Suite952 Lopezland,MA27123</t>
+          <t>5115Meza Mountain Suite952Lopezland,MA27123</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0014Franklin Inlet WestAngela,IL37850</t>
+          <t>0014FranklinInletWestAngela,IL37850</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>133Kelly Garden EastJames,NE 94919</t>
+          <t>133 Kelly GardenEast James,NE 94919</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>42517 LauriePassage Suite 826 North Charleshaven,NC09365</t>
+          <t>42517Laurie Passage Suite 826North Charleshaven,NC09365</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PSC7754,B0x5982 APOAA57973</t>
+          <t>PSC7754,B0x5982APOAA57973</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>17940 Thompson Mall Mendozaside,FL49034</t>
+          <t>17940 Thompson MallMendozaside,FL49034</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>4312 Navarro Camp Apt.554 WestAlexandra,MI02825</t>
+          <t>4312 Navarro Camp Apt.554WestAlexandra,MI02825</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>21372 NelsonForkSuite152 NorthPamela,OK82764</t>
+          <t>21372 Nelson ForkSuite 152NorthPamela,OK82764</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>262SmithViewSuite482 Port Christian,AK57824</t>
+          <t>262SmithViewSuite482Port Christian,AK57824</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>384EricAvenue NorthPaulville,PA 08561</t>
+          <t>384EricAvenueNorthPaulville,PAO8561</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Unit7456B0x8480 DPOAP59910</t>
+          <t>Unit7456B0x8480DPOAP59910</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>8093RachelSquareSuite024 Michaelberg,ND41121</t>
+          <t>8093RachelSquareSuite024Michaelberg,ND41121</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>58435KlineWall Port Stacey,NM 41817</t>
+          <t>58435KlineWallPort Stacey,NM41817</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>13078MoraGarden Morseberg,WV48959</t>
+          <t>13078MoraGardenMorseberg,WV48959</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>643Fox Mountains South Melissa,NV 00738</t>
+          <t>643Fox MountainsSouth Melissa,NV 00738</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>94973 Steven FerrySuite348 NorthCarl,FL60357</t>
+          <t>94973 Steven FerrySuite348NorthCarl,FL60357</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>461MatthewVia Apt.391 LakeTroyview,MA07142</t>
+          <t>461MatthewVia Apt.391LakeTroyview,MA07142</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>9644LindsayWellApt.770 NorthDavid,HI72138</t>
+          <t>9644LindsayWellApt.770NorthDavid,HI72138</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>79040AndersonFort Michaelport,SD42110</t>
+          <t>79040AndersonFortMichaelport,SD42110</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5247,12 +5247,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Rodriguez,Hall and Tanner</t>
+          <t>Rodriguez,Hall andTanner</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PSC6611,B0x2668 APOAP07491</t>
+          <t>PSC6611,Box2668APOAP07491</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>164JenniferLoafApt.007 Port Sarahchester,Wl71982</t>
+          <t>164JenniferLoafApt.007Port Sarahchester,Wl71982</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5281,12 +5281,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Dean Inc</t>
+          <t>DeanInc</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>76328 Christina RidgeApt.941 Petersonfurt,IN38814</t>
+          <t>76328 Christina RidgeApt.941Petersonfurt,IN38814</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>260MeaganVillageApt.658 South Oscar,MS93822</t>
+          <t>260MeaganVillageApt.658South Oscar,MS93822</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5315,12 +5315,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Carter,Kelleyand Scott</t>
+          <t>Carter,Kelley and Scott</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10615 Parker SquaresSuite427 Waltershaven,TN05191</t>
+          <t>10615 Parker SquaresSuite427Waltershaven,TN05191</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>04712AndrewMeadows NorthHannah,NV36457</t>
+          <t>04712AndrewMeadowsNorthHannah,NV36457</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>456SnyderCrossroad NewErikmouth,IA43321</t>
+          <t>456SnyderCrossroadNewErikmouth,IA43321</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>075 Hutchinson Knolls EastJade,TX52640</t>
+          <t>075 Hutchinson KnollsEast Jade,TX52640</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>3913FrankInlet Port Kathy,GA 28821</t>
+          <t>3913FrankInletPort Kathy,GA28821</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Unit 9334B0x0050 DPOAA20042</t>
+          <t>Unit9334Box0050DPOAA20042</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>08361 Nguyen Mountain Jesusberg,OK18158</t>
+          <t>08361NguyenMountainJesusberg,OK18158</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>897Gonzalez Junction Apt.934 Jesseburgh,MN12053</t>
+          <t>897GonzalezJunction Apt.934Jesseburgh,MN12053</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>5504Nicholas Ramp Lake Jamesview,MO 66052</t>
+          <t>5504NicholasRampLakeJamesview,MO66052</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Unit7903B0x5935 DPOAA05957</t>
+          <t>Unit7903B0x5935DPOAA05957</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>20130JessicaTrackApt.223 Weberhaven,CO86898</t>
+          <t>20130JessicaTrackApt.223Weberhaven,CO86898</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>USS King FPOAE90041</t>
+          <t>USS KingFPOAE90041</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>294JamesCurve NorthKatherine,MN18368</t>
+          <t>294 JamesCurveNorth Katherine,MN18368</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>381Denise Ridges Port Ericport,WY05623</t>
+          <t>381Denise RidgesPortEricport,WY05623</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>0388 Hutchinson Corner Apt.019 Deborahside,SC93156</t>
+          <t>0388Hutchinson CornerApt.019Deborahside,SC93156</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>8737GuzmanFlatSuite825 EastJohn,ME21474</t>
+          <t>8737GuzmanFlatSuite825EastJohn,ME21474</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>5194FoleyRoads NorthScott,PA71079</t>
+          <t>5194FoleyRoadsNorthScott,PA71079</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>935Megan Rue Suite369 WestZachary,WV89266</t>
+          <t>935MeganRueSuite369WestZachary,WV89266</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2192KennethWalk Obrienmouth,MN10662</t>
+          <t>2192KennethWalkObrienmouth,MN10662</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>683AdrianaStation Alexandertown,TN95870</t>
+          <t>683AdrianaStationAlexandertown,TN95870</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>486KeySquareApt.882 SouthJoshua,MN 08706</t>
+          <t>486KeySquareApt.882SouthJoshua,MN08706</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>925WardCausewayApt.627 Lynnfort,MA08264</t>
+          <t>925WardCausewayApt.627Lynnfort,MA 08264</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>8088FowlerPort EastCarltown,WV38653</t>
+          <t>8088FowlerPortEastCarltown,WV38653</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5706,12 +5706,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Garza LLC</t>
+          <t>GarzaLLC</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>11263 Michele Pine Charlesport,Wl37003</t>
+          <t>11263MichelePineCharlesport,Wl37003</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>08439 Shannon Plain Apt.765 Port Josephstad,MS26740</t>
+          <t>08439 Shannon Plain Apt.765Port Josephstad,MS26740</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>301 Gardner Cliff Josephview,MS68973</t>
+          <t>301 Gardner CliffJosephview,MS 68973</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PSC0469,B0x6078 APOAP14160</t>
+          <t>PSC0469,Box6078APOAP14160</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>27210AllisonRue NewMichellefort,NH37075</t>
+          <t>27210AllisonRueNewMichellefort,NH37075</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5791,12 +5791,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Rivera,Cruz and Lane</t>
+          <t>Rivera,Cruz andLane</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2837FarleyKeyApt.148 Luisfurt,NV02906</t>
+          <t>2837FarleyKeyApt.148Luisfurt,NV02906</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>588MoralesRapids EastKatherineton,MT53545</t>
+          <t>588MoralesRapidsEastKatherineton,MT53545</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PSC0164,Box7355 APOAA37205</t>
+          <t>PSC0164,Box7355APOAA37205</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>197DonaldFlat Baileychester,MA48782</t>
+          <t>197Donald FlatBaileychester,MA48782</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1177 George Club Apt.743 Jamieberg,Rl23568</t>
+          <t>1177 George Club Apt.743Jamieberg,Rl23568</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5876,12 +5876,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Garrett,Simmons and Smith</t>
+          <t>Garrett,SimmonsandSmith</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>52259AlexanderStationSuite695 EastCrystalmouth,Nj 44771</t>
+          <t>52259AlexanderStationSuite695EastCrystalmouth,Nj 44771</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>05284Keith Ridge Nicolefurt,NY77643</t>
+          <t>05284Keith RidgeNicolefurt,NY77643</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Unit0758Box0909 DPOAA34990</t>
+          <t>Unit0758B0x0909DPOAA34990</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5927,12 +5927,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Meza,Long and Rivera</t>
+          <t>Meza,Longand Rivera</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>981WadeVillages Pattersonfurt,VA18515</t>
+          <t>981WadeVillagesPattersonfurt,VA18515</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>042TaylorExtensionsApt.218 NorthRachelstad,NC44120</t>
+          <t>042TaylorExtensionsApt.218NorthRachelstad,NC44120</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7418HannahShoals NewChristopherchester,SD 61672</t>
+          <t>7418HannahShoalsNewChristopherchester,SD 61672</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PSC9518,B0x7951 APOAA84507</t>
+          <t>PSC9518,B0x7951APOAA84507</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>86933MataCenter Alicemouth,SD91648</t>
+          <t>86933MataCenterAlicemouth,SD91648</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6012,12 +6012,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Burgess Ltd</t>
+          <t>BurgessLtd</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>83465MarkWells Grantport,LA14496</t>
+          <t>83465MarkWellsGrantport,LA14496</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>397KathrynDale Suite540 WestTinamouth,MD72150</t>
+          <t>397KathrynDaleSuite540WestTinamouth,MD72150</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>9390LauraGlen NorthDavidchester,MA24825</t>
+          <t>9390LauraGlenNorthDavidchester,MA24825</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -6063,12 +6063,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Dennis,Levyand Bowen</t>
+          <t>Dennis,Levy and Bowen</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>523LeslieManors Lake Colleenville,CT 12053</t>
+          <t>523LeslieManorsLake Colleenville,CT 12053</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PSC3846,B0x9643 APOAP38432</t>
+          <t>PSC3846,B0x9643APOAP38432</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>717ClarkLight Lake Susanview,KY74161</t>
+          <t>717ClarkLightLakeSusanview,KY74161</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>976AndreaSummitSuite169 Jasonburgh,IL72754</t>
+          <t>976AndreaSummitSuite169Jasonburgh,IL72754</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>1995LuisGardens Hickmanmouth,CA99366</t>
+          <t>1995LuisGardensHickmanmouth,CA99366</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>9228Randall Harbors Ruizstad,KY33798</t>
+          <t>9228Randall HarborsRuizstad,KY33798</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>6907Allison MillsSuite764 PortVincentburgh,WA33848</t>
+          <t>6907AllisonMillsSuite764PortVincentburgh,WA33848</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2921ReyesVista Garrettland,ND23081</t>
+          <t>2921ReyesVistaGarrettland,ND23081</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>164DeanBypass Lake Stephenchester,AR78025</t>
+          <t>164DeanBypassLake Stephenchester,AR78025</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>617ChristopherDam EastFrancesville,AK52765</t>
+          <t>617ChristopherDamEastFrancesville,AK52765</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>848HeatherBrooksSuite713 Torresview,NE01681</t>
+          <t>848HeatherBrooksSuite713Torresview,NE01681</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7801Gilbert Cliff Apt.666 Staceyton,NC37739</t>
+          <t>7801Gilbert Cliff Apt.666Staceyton,NC37739</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>USSClark FPOAA80689</t>
+          <t>USSClarkFPOAA80689</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>839SamanthaRueApt.955 NorthEmilyborough,DE 55806</t>
+          <t>839SamanthaRueApt.955North Emilyborough,DE55806</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>716WrightFlatApt.385 South Carrie,GA17790</t>
+          <t>716WrightFlatApt.385South Carrie,GA17790</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>0004ElizabethFall Brianfort,Hl90540</t>
+          <t>0004ElizabethFallBrianfort,Hl90540</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>48021ReyesParkway EastSandraberg,CA76048</t>
+          <t>48021ReyesParkwayEastSandraberg,CA76048</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Unit7238Box1008 DPOAA21814</t>
+          <t>Unit7238B0x1008DPOAA21814</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6369,12 +6369,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Reed,Hall andBrown</t>
+          <t>Reed,HallandBrown</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>90613 Donna Estates Danielhaven,PA75160</t>
+          <t>90613 Donna EstatesDanielhaven,PA75160</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>1827Byrd Islands Martinezstad,DE49001</t>
+          <t>1827Byrd IslandsMartinezstad,DE49001</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>3612 Rodriguez Union Hilltown,NE56109</t>
+          <t>3612Rodriguez UnionHilltown,NE56109</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>786Troy Flat Suite 673 Youngville,IN45339</t>
+          <t>786Troy Flat Suite 673Youngville,IN45339</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6437,12 +6437,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Macdonald,Bentley and Nguyen</t>
+          <t>Macdonald,Bentley andNguyen</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>68699CynthiaTurnpike Mendozamouth,KY86371</t>
+          <t>68699CynthiaTurnpikeMendozamouth,KY86371</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>4444MaryBrooks Rothbury,MN28946</t>
+          <t>4444MaryBrooksRothbury,MN28946</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>726Mills Island Apt.702 Randyville,MA40113</t>
+          <t>726Mills Island Apt.702Randyville,MA40113</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>9736WarrenLandingSuite496 PortJacob,NM04357</t>
+          <t>9736Warren LandingSuite496PortJacob,NM04357</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>PSC8101,Box1579 APOAA65856</t>
+          <t>PSC8101,Box1579APOAA65856</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>8053Friedman Burg Patrickfort,FL71567</t>
+          <t>8053 Friedman BurgPatrickfort,FL71567</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>752DavisVillages Chavezborough,GA28510</t>
+          <t>752DavisVillagesChavezborough,GA28510</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>566DanielsCauseway Leonardfurt,Ml40983</t>
+          <t>566DanielsCausewayLeonardfurt,MI40983</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>476Cantrell KnollsSuite941 Hernandezport,AZ25632</t>
+          <t>476CantrellKnollsSuite941Hernandezport,AZ25632</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>USNVSmith FPOAE18444</t>
+          <t>USNVSmithFPOAE18444</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>445HaasViaductSuite454 Michaelhaven,LA32852</t>
+          <t>445HaasViaductSuite454Michaelhaven,LA32852</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>3043 Peters Lights Suite 433 Greerton,NV21983</t>
+          <t>3043Peters Lights Suite433Greerton,NV21983</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>3733Hill Heights Frankland,NY73888</t>
+          <t>3733Hill HeightsFrankland,NY73888</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>053ShawnFields NewTommyborough,AK60906</t>
+          <t>053ShawnFieldsNewTommyborough,Ak60906</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>890JudithHeights Apt.198 NewNicoleborough,CT32698</t>
+          <t>890JudithHeightsApt.198NewNicoleborough,CT32698</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6692,12 +6692,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Green,Kelly andMatthews</t>
+          <t>Green,Kelly and Matthews</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>5110HeatherWays Andersontown,Rl96931</t>
+          <t>5110HeatherWaysAndersontown,Rl96931</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>70321 Cynthia PinesSuite 100 EastBarbara,DC80375</t>
+          <t>7032l Cynthia PinesSuite 100EastBarbara,DC80375</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6726,12 +6726,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Harrison and Sons</t>
+          <t>HarrisonandSons</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>64237MichaelHarborSuite710 SouthKelly,LA05220</t>
+          <t>64237MichaelHarborSuite710SouthKelly,LA05220</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>3206AdamCliffsApt.677 South Monicaborough,MD 87314</t>
+          <t>3206AdamCliffsApt.677South Monicaborough,MD 87314</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>3842KylePark Suite882 WestJennifer,MI 96108</t>
+          <t>3842KyleParkSuite882West Jennifer,MI 96108</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>41571 Joann Vista Suite 690 Davisview,MT63230</t>
+          <t>41571 JoannVista Suite690Davisview,MT63230</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>82599 David Ridge Cindyburgh,MN86421</t>
+          <t>82599 David RidgeCindyburgh,MN86421</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>966Smith Groves Apt.801 East Susanfurt,ID 84874</t>
+          <t>966Smith Groves Apt.801EastSusanfurt,ID 84874</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2986WeberSummit Markstad,MN43966</t>
+          <t>2986WeberSummitMarkstad,MN43966</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>USCGCDuran FPOAP85163</t>
+          <t>USCGCDuranFPOAP85163</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>1010JamesCenterApt.332 EastCynthiaburgh,AZ43237</t>
+          <t>1010 JamesCenterApt.332EastCynthiaburgh,AZ43237</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>36999 Cynthia WalkSuite 460 Greenchester,NC24265</t>
+          <t>36999CynthiaWalkSuite460Greenchester,NC24265</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>USSKelly FPOAA90481</t>
+          <t>USSKellyFPOAA90481</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>0258ChenExpresswayApt.645 Sanfordbury,SC04439</t>
+          <t>0258ChenExpresswayApt.645Sanfordbury,SC04439</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>99067PaulaInletSuite161 NorthStephanie,MA72758</t>
+          <t>99067PaulaInletSuite161NorthStephanie,MA72758</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>58406 JohnVillages Courtneyport,UT18877</t>
+          <t>58406 JohnVillagesCourtneyport,UT18877</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>811Tony Coves Suite 199 NorthDavid,AZ46790</t>
+          <t>811Tony CovesSuite 199NorthDavid,AZ46790</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6981,12 +6981,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Underwood,RyanandKelley</t>
+          <t>Underwood,Ryanand Kelley</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>12536WatsonTurnpike South Denisechester,VA36258</t>
+          <t>12536WatsonTurnpikeSouthDenisechester,VA36258</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>342GordonWall South Cindy,LA 64003</t>
+          <t>342GordonWallSouth Cindy,LA 64003</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Unit8065Box0489 DPOAA57123</t>
+          <t>Unit8065Box0489DPOAA57123</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>9242 Schultz Spring SouthRobertberg,VA93346</t>
+          <t>9242SchultzSpringSouth Robertberg,VA93346</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>18463JessicaPine Port Alejandroton,SC 14426</t>
+          <t>18463JessicaPinePort Alejandroton,SC 14426</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7066,12 +7066,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Cruz,Navarro and Brown</t>
+          <t>Cruz,Navarro andBrown</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>1646JimLocks Lake Shannonburgh,OR 56427</t>
+          <t>1646JimLocksLake Shannonburgh,OR 56427</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2416WalkerPointApt.891 Peggyborough,ID81152</t>
+          <t>2416Walker PointApt.891Peggyborough,ID81152</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7100,12 +7100,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Brown,Smith and Blevins</t>
+          <t>Brown,Smith andBlevins</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>1897MicheleKeyApt.753 NewSamanthaville,WA50514</t>
+          <t>1897MicheleKeyApt.753NewSamanthaville,WA50514</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>49479 JamesCanyonApt.672 Port Stephaniehaven,AK61071</t>
+          <t>49479JamesCanyonApt.672Port Stephaniehaven,AK61071</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>86000 MatthewValleysSuite493 Fischermouth,AZ42861</t>
+          <t>8600oMatthewValleysSuite493Fischermouth,AZ42861</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>USNVOlson FPOAP50747</t>
+          <t>USNVOIsonFPOAP50747</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>1763LeeSquare West Stacymouth,CT72038</t>
+          <t>1763LeeSquareWest Stacymouth,CT72038</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>248JamesViewsApt.184 Port Amytown,OR42693</t>
+          <t>248JamesViewsApt.184Port Amytown,OR42693</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>7228LewisHarborSuite050 EastDarrell,NV92498</t>
+          <t>7228LewisHarborSuite050EastDarrell,NV92498</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>0048HuberOrchardSuite513 Nelsontown,IA74437</t>
+          <t>0048HuberOrchardSuite513Nelsontown,IA74437</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>0304 Michael UnderpassApt.436 Walkerfurt,MS89150</t>
+          <t>0304 Michael UnderpassApt.436Walkerfurt,MS89150</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7253,12 +7253,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>JordanLLC</t>
+          <t>Jordan LLC</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>153Ana Coves Suite 124 Williamfurt,NY35374</t>
+          <t>153Ana Coves Suite 124Williamfurt,NY35374</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>47851Michael Rapids Suite 469 Scottbury,MS96580</t>
+          <t>47851 MichaelRapids Suite 469Scottbury,MS96580</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Unit4520Box4858 DPOAP27104</t>
+          <t>Unit4520Box4858DPOAP27104</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>87928 Christina Terrace Michaelton,MO84688</t>
+          <t>87928ChristinaTerraceMichaelton,MO84688</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>272Allen Crescent Apt.713 Caseport,SC53123</t>
+          <t>272Allen Crescent Apt.713Caseport,SC53123</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>672Garcia Radial Murphytown,NY26166</t>
+          <t>672GarciaRadialMurphytown,NY26166</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>875MeyersSquaresSuite046 EastLeahhaven,WA36603</t>
+          <t>875MeyersSquaresSuite046EastLeahhaven,WA36603</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>77872JohnRoute South Timothyside,IN 97218</t>
+          <t>77872JohnRouteSouth Timothyside,IN 97218</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>7895WhiteEstate Port Ethanland,MA15193</t>
+          <t>7895WhiteEstatePort Ethanland,MA15193</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>53393PetersOverpass Boothside,WY76847</t>
+          <t>53393PetersOverpassBoothside,WY76847</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>55143 DaughertyShores Lake Lindseytown,ME 94332</t>
+          <t>55143DaughertyShoresLakeLindseytown,ME94332</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>3867AnnetteTunnel NorthCodybury,FL61678</t>
+          <t>3867AnnetteTunnelNorthCodybury,FL61678</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>688HollandIsle South Maria,MD 09676</t>
+          <t>688Holland IsleSouth Maria,MD09676</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>923LydiaLightApt.886 Lake Sharon,ND31159</t>
+          <t>923LydiaLightApt.886Lake Sharon,ND31159</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>91393McgeeRestApt.161 WestTammieborough,SD74985</t>
+          <t>91393McgeeRestApt.161WestTammieborough,SD74985</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Wheeler,LopezandWatts</t>
+          <t>Wheeler,Lopez andWatts</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>334KyleHighway Suite801 NorthMatthew,OK20710</t>
+          <t>334KyleHighwaySuite801NorthMatthew,OK20710</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>17347RichardsonPort Apt.704 NorthHeatherhaven,AZ88060</t>
+          <t>17347RichardsonPortApt.704NorthHeatherhaven,AZ88060</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>439SavannahPortsApt.792 EastAdrianton,OR 66623</t>
+          <t>439Savannah Ports Apt.792EastAdrianton,OR66623</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>680Tamara SummitApt.679 Westland,LA51550</t>
+          <t>680Tamara SummitApt.679Westland,LA51550</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>693MelissaRiverSuite422 LakeMark,WY36311</t>
+          <t>693MelissaRiverSuite422LakeMark,WY36311</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7593,12 +7593,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>James and Sons</t>
+          <t>Jamesand Sons</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>159Moran Green WestKylestad,TN52607</t>
+          <t>159Moran GreenWestKylestad,TN52607</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>609Morgan Locks NewJamiemouth,FL32767</t>
+          <t>609MorganLocksNewJamiemouth,FL32767</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>6027HamptonWall Suite353 LakeJacobton,ND81902</t>
+          <t>6027HamptonWall Suite353LakeJacobton,ND81902</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>245EricRest Suite 622 Port Jimmyview,CO 68684</t>
+          <t>245EricRest Suite 622Port Jimmyview,CO 68684</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>80956 BobMission Michelleside,DC87406</t>
+          <t>80956BobMissionMichelleside,DC87406</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>686JenniferKnolls NorthMichelle,DC14984</t>
+          <t>686JenniferKnollsNorth Michelle,DC14984</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>34813DavisViews Jasonhaven,MO 32671</t>
+          <t>34813DavisViewsJasonhaven,MO 32671</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>95802 RamseyCommon LakeSarah,SD10909</t>
+          <t>95802 RamseyCommonLakeSarah,SD10909</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>99159AcostaPlainsApt.575 NewJohnnystad,SD03879</t>
+          <t>99159 AcostaPlains Apt.575NewJohnnystad,SD03879</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>81747Brown CornerApt.501 Baileyfort，WV16678</t>
+          <t>81747Brown Corner Apt.501Baileyfort,WV16678</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>623RebekahCauseway Gregoryport,ND69850</t>
+          <t>623RebekahCausewayGregoryport,ND69850</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>8012 Stewart Summit Apt.455 NorthDouglas,AZ95355</t>
+          <t>8012 Stewart SummitApt.455NorthDouglas,AZ95355</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>98672 Rodriguez Common Apt.340 Newlsabellabury,NY68785</t>
+          <t>98672 RodriguezCommon Apt.340Newlsabellabury,NY68785</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>34887CraigTrailApt.161 LakeSally,CA02955</t>
+          <t>34887CraigTrailApt.161LakeSally,CA02955</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>9045Robin Roads Apt.802 Mirandatown,VA26452</t>
+          <t>9045Robin Roads Apt.802Mirandatown,VA26452</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>3468 Hill Corners Suite 409 NorthCatherine,MS73015</t>
+          <t>3468 Hill Corners Suite 409North Catherine,MS73015</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>355KingLakeSuite071 South Haleyshire,KY55765</t>
+          <t>355KingLakeSuite071South Haleyshire,KY55765</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>8279Katherine Springs Suite608 Davidshire,AR33275</t>
+          <t>8279KatherineSprings Suite608Davidshire,AR33275</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>813Heather Square Apt.393 Lisamouth,MA10654</t>
+          <t>813HeatherSquareApt.393Lisamouth,MA10654</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>90271NathanielSquareApt.059 EastTonyaville,WV90098</t>
+          <t>90271NathanielSquareApt.059EastTonyaville,WV90098</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>95742 Elizabeth Neck Suite202 LakeMarcus,MA27087</t>
+          <t>95742 Elizabeth Neck Suite202LakeMarcus,MA27087</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>1445SilvaTrace North Susan,TX31627</t>
+          <t>1445SilvaTraceNorth Susan,TX31627</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>USCGC Monroe FPOAA63303</t>
+          <t>USCGCMonroeFPOAA63303</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>080PalmerField NewTraci,WA03606</t>
+          <t>080PalmerFieldNewTraci,WA03606</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>654Benjamin Mission WestDavid,SD15741</t>
+          <t>654Benjamin MissionWestDavid,SD15741</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>PSC7135,B0x6318 APOAP50309</t>
+          <t>PSC7135,B0x6318APOAP50309</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>930LaneTrail Johnsonfurt,DE 94674</t>
+          <t>930LaneTrailJohnsonfurt,DE 94674</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2954Potter Spur Lake Natalie,ME80450</t>
+          <t>2954PotterSpurLakeNatalie,ME 80450</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>3158 Nicholas Harbor South Alicia,DC71771</t>
+          <t>3158 Nicholas HarborSouth Alicia,DC71771</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>7253Weiss LoopSuite364 Mitchellshire,IN22217</t>
+          <t>7253WeissLoopSuite364Mitchellshire,IN22217</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>357Thomas Street Apt.860 WestDouglas,SC32151</t>
+          <t>357Thomas Street Apt.860WestDouglas,SC32151</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>579Henry Heights NewDennisfurt,ND 64781</t>
+          <t>579Henry HeightsNewDennisfurt,ND 64781</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>1956AdamsIslandApt.000 Wheelerside,KY77866</t>
+          <t>1956AdamsIslandApt.000Wheelerside,KY77866</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>4883HernandezJunction Williamview,MS95898</t>
+          <t>4883Hernandez JunctionWilliamview,MS95898</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>143Tonya Bridge Quinnborough,PA08012</t>
+          <t>143Tonya BridgeQuinnborough,PA 08012</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>00785 Knight Summit Rachelville,WA38316</t>
+          <t>00785KnightSummitRachelville,WA38316</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>939SolomonStream Mikeside,OK42819</t>
+          <t>939SolomonStreamMikeside,OK42819</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2857Wilson Pass Suite 600 Ashleychester,NH99275</t>
+          <t>2857WilsonPass Suite 600Ashleychester,NH99275</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>6469ReedCourtSuite161 NorthJessica,TN52447</t>
+          <t>6469 Reed Court Suite 161NorthJessica,TN52447</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>6686SaraCreek Amandaburgh,KY24780</t>
+          <t>6686SaraCreekAmandaburgh,KY24780</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>4441WiseKeys Skinnermouth,SC35784</t>
+          <t>4441WiseKeysSkinnermouth,SC35784</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>USCGCMurphy FPOAA28870</t>
+          <t>USCGCMurphyFPOAA28870</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>USNSBrown FPOAE78346</t>
+          <t>USNSBrownFPOAE78346</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>8610ChandlerRidge Katherinefurt,ND73081</t>
+          <t>8610ChandlerRidgeKatherinefurt,ND73081</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>10905 Gill Island North Angela,SC31326</t>
+          <t>10905Gill IslandNorthAngela,SC31326</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8358,12 +8358,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Sanchez,Miller and Mitchell</t>
+          <t>Sanchez,Miller andMitchell</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>36708Dawn Roads Apt.402 NewKennethview,Rl40298</t>
+          <t>36708 DawnRoadsApt.402NewKennethview,Rl40298</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>1360 Allen Villages Suite 481 Francisborough,WA82514</t>
+          <t>1360 AllenVillages Suite 481Francisborough,WA82514</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>61224MelodySpringsApt.423 Michaelside,CT66290</t>
+          <t>61224MelodySpringsApt.423Michaelside,CT66290</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>84169TaylorPineApt.088 EastSean,Rl05084</t>
+          <t>84169TaylorPineApt.088EastSean,Rl05084</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>67220KnoxDivide Hawkinsbury,ME17281</t>
+          <t>67220KnoxDivideHawkinsbury,ME17281</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>60356KennethCorners LakeJustinberg,WA57791</t>
+          <t>60356KennethCornersLakeJustinberg,WA57791</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>97546Brown HillsApt.820 Sarahmouth,DC58341</t>
+          <t>97546Brown HillsApt.820Sarahmouth,DC58341</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>31524TonyaFreeway Cartermouth,MD 31955</t>
+          <t>31524TonyaFreewayCartermouth,MD 31955</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8494,12 +8494,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Ray,Evans and Davis</t>
+          <t>Ray,Evans andDavis</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>USNSGraves FPOAP68014</t>
+          <t>USNSGravesFPOAP68014</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>83872NealVillagesApt.420 Moodyport,DE12787</t>
+          <t>83872 NealVillagesApt.420Moodyport,DE12787</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2388Stephanie SquaresSuite012 Lake Stephaniefort,NY31834</t>
+          <t>2388Stephanie SquaresSuite012Lake Stephaniefort,NY31834</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>167EthanKnolls Reyestown,NC40977</t>
+          <t>167EthanKnollsReyestown,NC40977</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>194SaraWells Apt.125 Terrellport,OK77300</t>
+          <t>194SaraWellsApt.125Terrellport,OK77300</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>0386KaneAlley Zacharystad,MT55786</t>
+          <t>0386KaneAlleyZacharystad,MT55786</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>299Megan Bypass Apt.471 Robertview,CO69857</t>
+          <t>299MeganBypass Apt.471Robertview,CO69857</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>PSC1999,B0x5007 APOAE45315</t>
+          <t>PSC1999,B0x5007APOAE45315</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>007JeffreyLocksApt.955 Tamaramouth,Ml22260</t>
+          <t>007JeffreyLocksApt.955Tamaramouth,Ml22260</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>9842KellyRiver Carlfort,SD15783</t>
+          <t>9842KellyRiverCarlfort,SD15783</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>6920 Barron Estate Apt.933 Kristenport,MO 04650</t>
+          <t>6920BarronEstateApt.933Kristenport,MO 04650</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>874MaryLock LakeWayne,OR37846</t>
+          <t>874MaryLockLakeWayne,OR37846</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>6801WigginsPrairie Suite455 Lewistown,VA46911</t>
+          <t>6801WigginsPrairie Suite455Lewistown,VA46911</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>7147WilsonStream Cookstad,TN25047</t>
+          <t>7147WilsonStreamCookstad,TN25047</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>303Solomon Lake Apt.277 Weberland,OR55395</t>
+          <t>303Solomon Lake Apt.277Weberland,OR55395</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>USCGC Mann FPOAA99322</t>
+          <t>USCGCMannFPOAA99322</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8766,12 +8766,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Bass,Kelly and Barnes</t>
+          <t>Bass,Kelly andBarnes</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>54916DianaPassageApt.658 EastSteven,NV32196</t>
+          <t>54916DianaPassageApt.658EastSteven,NV32196</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8783,12 +8783,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Rivera,Santiago and Brown</t>
+          <t>Rivera,Santiago andBrown</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>3457Harris CreekApt.720 Jacksonview,NV45660</t>
+          <t>3457Harris CreekApt.720Jacksonview,NV45660</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2858HoodTrail Port Carolynberg,TN 82356</t>
+          <t>2858HoodTrailPort Carolynberg,TN 82356</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8817,12 +8817,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Howell,Bryantand Martinez</t>
+          <t>Howell,BryantandMartinez</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>120 Martinez Gardens Suite075 Nicholasmouth,MS36786</t>
+          <t>120 Martinez Gardens Suite075Nicholasmouth,MS36786</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>901AngelOvalApt.914 NewSamuel,KS55681</t>
+          <t>901AngelOvalApt.914NewSamuel,KS55681</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>576Duncan Prairie Moodyland,KS74247</t>
+          <t>576Duncan PrairieMoodyland,KS74247</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>944SanchezFord Suite076 PortAngelabury,IL45043</t>
+          <t>944SanchezFord Suite 076PortAngelabury,IL45043</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>47773MillerCourt Harrisonmouth,ME 64015</t>
+          <t>47773 MillerCourtHarrisonmouth,ME 64015</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>4800JuliePort Carsonstad,GA 97569</t>
+          <t>4800JuliePortCarsonstad,GA97569</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8919,12 +8919,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Willis andSons</t>
+          <t>WillisandSons</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>397 Cody Plain Suite 364 South Jonfurt,TX 19023</t>
+          <t>397Cody Plain Suite 364South Jonfurt,TX 19023</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
